--- a/BOM-v1.2.xlsx
+++ b/BOM-v1.2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="278">
   <si>
     <t>Qty</t>
   </si>
@@ -844,6 +844,12 @@
   </si>
   <si>
     <t>Crimpzange für Flachsteckhülsen</t>
+  </si>
+  <si>
+    <t>Case KRADEX Z17W</t>
+  </si>
+  <si>
+    <t>https://www.kradex.de/product/gehaeuse_mit_seitenpaneelen/z17</t>
   </si>
 </sst>
 </file>
@@ -3681,10 +3687,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3696,7 +3702,7 @@
     <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="63.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3725,36 +3731,39 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>263</v>
-      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3762,7 +3771,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -3770,7 +3779,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -3778,29 +3787,26 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
-      </c>
-      <c r="H8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3808,7 +3814,7 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H10" t="s">
         <v>271</v>
@@ -3816,13 +3822,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
+        <v>272</v>
+      </c>
+      <c r="H11" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3830,9 +3836,20 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>274</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" t="s">
         <v>275</v>
       </c>
     </row>
